--- a/biology/Médecine/Joseph_Nicolas/Joseph_Nicolas.xlsx
+++ b/biology/Médecine/Joseph_Nicolas/Joseph_Nicolas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le professeur Joseph Nicolas, né le 11 août 1868 à Lyon et mort le 20 septembre 1960 à Cannes[1], est un dermatologue et vénéréologue français, co-découvreur du lymphogranulome vénérien (maladie de Nicolas et Favre)[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le professeur Joseph Nicolas, né le 11 août 1868 à Lyon et mort le 20 septembre 1960 à Cannes, est un dermatologue et vénéréologue français, co-découvreur du lymphogranulome vénérien (maladie de Nicolas et Favre),.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après l'obtention de sa thèse en médecine à Lyon en 1895, Joseph Nicholas devient en 1904 médecin des hôpitaux de Lyon puis professeur de clinique des maladies cutanées et syphilitiques à partir de 1906[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après l'obtention de sa thèse en médecine à Lyon en 1895, Joseph Nicholas devient en 1904 médecin des hôpitaux de Lyon puis professeur de clinique des maladies cutanées et syphilitiques à partir de 1906.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il y a une rue du Professeur-Joseph-Nicolas dans le 8e arrondissement de Lyon[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il y a une rue du Professeur-Joseph-Nicolas dans le 8e arrondissement de Lyon.
 Une pierre commémorative est présente au sein de l'hôpital Édouard Herriot au pavillon dermatologie R.</t>
         </is>
       </c>
